--- a/sevenRMart/target/classes/Resources/TestDatas.xlsx
+++ b/sevenRMart/target/classes/Resources/TestDatas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754D98A5-A5F0-4702-A27E-3AC025BEDCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E9BC3-0F27-46C4-B8C2-6F39A46B9305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="895" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="895" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPageData" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,21 @@
     <sheet name="pushNotificationInformation" sheetId="2" r:id="rId3"/>
     <sheet name="listUsersData" sheetId="3" r:id="rId4"/>
     <sheet name="hamBurgerMenuData" sheetId="4" r:id="rId5"/>
-    <sheet name="manageUsersData" sheetId="6" r:id="rId6"/>
-    <sheet name="managePayementMethodData" sheetId="7" r:id="rId7"/>
+    <sheet name="managePagesData" sheetId="10" r:id="rId6"/>
+    <sheet name="manageOrdersPageData" sheetId="11" r:id="rId7"/>
+    <sheet name="homePageData" sheetId="12" r:id="rId8"/>
+    <sheet name="siteNameData" sheetId="13" r:id="rId9"/>
+    <sheet name="manageUsersData" sheetId="6" r:id="rId10"/>
+    <sheet name="managePayementMethodData" sheetId="7" r:id="rId11"/>
+    <sheet name="manageOfferCodePageData" sheetId="8" r:id="rId12"/>
+    <sheet name="manageSliderPageData" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>admin</t>
   </si>
@@ -81,13 +87,46 @@
   </si>
   <si>
     <t>UPI</t>
+  </si>
+  <si>
+    <t>SUMMER50</t>
+  </si>
+  <si>
+    <t>Summer offer on groceries</t>
+  </si>
+  <si>
+    <t>https://selenium.obsqurazone.com/simple-form-demo.php</t>
+  </si>
+  <si>
+    <t>Manage Pages</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>Test Delivery Boy</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>rgba(255, 255, 255, 1)</t>
+  </si>
+  <si>
+    <t>7rmart supermarket</t>
+  </si>
+  <si>
+    <t>24px</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +147,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,10 +182,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,6 +564,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D793A3-03AA-4504-9E38-31C35CCE2B0D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47EC164-F184-44AE-8651-7CFBB8E4494F}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B36C95-5969-4BB3-8AE3-19FDB566F16B}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+      <c r="C1">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4601142-E028-4D58-AF4D-9F1DCC4E07DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B36CD1-21F5-41D4-B9BE-D11531CEEE56}">
   <dimension ref="A1:B1"/>
@@ -591,10 +765,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DD3D6-4E89-4500-AF5A-47C469E4C6E9}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +781,7 @@
     <col min="6" max="6" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -626,6 +800,9 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -634,66 +811,98 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D793A3-03AA-4504-9E38-31C35CCE2B0D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06029092-D48A-49BF-98FB-DA035DED4F6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F50803-2E5A-43F1-9D77-4B6010CF5B34}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08B8ED2-F692-4ECE-88BA-5DDC75AC35A6}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821E58CE-5019-42CF-829A-3BF53E9ABC58}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47EC164-F184-44AE-8651-7CFBB8E4494F}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1">
-        <v>50000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sevenRMart/target/classes/Resources/TestDatas.xlsx
+++ b/sevenRMart/target/classes/Resources/TestDatas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E9BC3-0F27-46C4-B8C2-6F39A46B9305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B017E12-7F26-482B-B1E2-2ACCBAAB290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="895" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="895" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPageData" sheetId="1" r:id="rId1"/>
@@ -15,19 +15,20 @@
     <sheet name="hamBurgerMenuData" sheetId="4" r:id="rId5"/>
     <sheet name="managePagesData" sheetId="10" r:id="rId6"/>
     <sheet name="manageOrdersPageData" sheetId="11" r:id="rId7"/>
-    <sheet name="homePageData" sheetId="12" r:id="rId8"/>
-    <sheet name="siteNameData" sheetId="13" r:id="rId9"/>
-    <sheet name="manageUsersData" sheetId="6" r:id="rId10"/>
-    <sheet name="managePayementMethodData" sheetId="7" r:id="rId11"/>
-    <sheet name="manageOfferCodePageData" sheetId="8" r:id="rId12"/>
-    <sheet name="manageSliderPageData" sheetId="9" r:id="rId13"/>
+    <sheet name="mobileSliderPageData" sheetId="14" r:id="rId8"/>
+    <sheet name="homePageData" sheetId="12" r:id="rId9"/>
+    <sheet name="siteNameData" sheetId="13" r:id="rId10"/>
+    <sheet name="manageUsersData" sheetId="6" r:id="rId11"/>
+    <sheet name="managePayementMethodData" sheetId="7" r:id="rId12"/>
+    <sheet name="manageOfferCodePageData" sheetId="8" r:id="rId13"/>
+    <sheet name="manageSliderPageData" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>admin</t>
   </si>
@@ -101,9 +102,6 @@
     <t>Manage Pages</t>
   </si>
   <si>
-    <t>dates</t>
-  </si>
-  <si>
     <t>paid</t>
   </si>
   <si>
@@ -120,13 +118,34 @@
   </si>
   <si>
     <t>24px</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>adminnew</t>
+  </si>
+  <si>
+    <t>Admine</t>
+  </si>
+  <si>
+    <t>Do you want to delete this Order?</t>
+  </si>
+  <si>
+    <t>Do you want to delete this Mobile Slider?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cranberry	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,25 +546,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="39.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -554,6 +573,20 @@
       </c>
       <c r="C2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -565,20 +598,45 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821E58CE-5019-42CF-829A-3BF53E9ABC58}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D793A3-03AA-4504-9E38-31C35CCE2B0D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -586,7 +644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -596,7 +654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47EC164-F184-44AE-8651-7CFBB8E4494F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -604,12 +662,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -629,7 +687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B36C95-5969-4BB3-8AE3-19FDB566F16B}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -637,12 +695,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -662,7 +720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4601142-E028-4D58-AF4D-9F1DCC4E07DB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -670,12 +728,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -693,9 +751,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -716,9 +774,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -739,17 +797,17 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -771,7 +829,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
@@ -781,7 +839,7 @@
     <col min="6" max="6" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,93 +874,96 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F50803-2E5A-43F1-9D77-4B6010CF5B34}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>24</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F50803-2E5A-43F1-9D77-4B6010CF5B34}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB38F66C-430B-45DD-A0B2-8E982ED59CBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08B8ED2-F692-4ECE-88BA-5DDC75AC35A6}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821E58CE-5019-42CF-829A-3BF53E9ABC58}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>